--- a/src/main/java/resources/testData/TestData.xlsx
+++ b/src/main/java/resources/testData/TestData.xlsx
@@ -579,7 +579,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
